--- a/example_data_for_mslists.xlsx
+++ b/example_data_for_mslists.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YPP4 GIT\ypp4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YPP 4\ypp4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CAC59F-2CDE-49B6-965A-7345D720C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26803A46-2020-44D2-87D6-1EE121A49279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{3FCDC1E8-3F3D-49E2-9489-AC8A5DF61D6D}"/>
+    <workbookView xWindow="2040" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{3FCDC1E8-3F3D-49E2-9489-AC8A5DF61D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Choice Column" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="199">
   <si>
     <t>Id</t>
   </si>
@@ -615,6 +615,27 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>ListId:1</t>
+  </si>
+  <si>
+    <t>ColId:1</t>
+  </si>
+  <si>
+    <t>IsAdditionColumn</t>
+  </si>
+  <si>
+    <t>TargetColumnId</t>
+  </si>
+  <si>
+    <t>SourceListId</t>
+  </si>
+  <si>
+    <t>SourceColumnId</t>
+  </si>
+  <si>
+    <t>LookupColumnId</t>
   </si>
 </sst>
 </file>
@@ -962,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1078,40 +1099,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2651,10 +2660,10 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="31"/>
       <c r="K12" s="40" t="s">
         <v>73</v>
@@ -2914,15 +2923,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0CBC14-08A3-4812-BEBE-9EC877CC6E57}">
-  <dimension ref="B1:S43"/>
+  <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
@@ -3819,7 +3828,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M33" s="6">
         <v>2</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>175</v>
       </c>
@@ -3855,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>0</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <v>1</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M37" s="6">
         <v>5</v>
       </c>
@@ -3932,7 +3941,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M38" s="6">
         <v>5</v>
       </c>
@@ -3946,7 +3955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I39" s="3" t="s">
         <v>147</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>134</v>
       </c>
@@ -3981,7 +3990,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -3996,7 +4005,7 @@
       </c>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
@@ -4011,12 +4020,97 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I43" s="10" t="s">
         <v>133</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="13"/>
+      <c r="M43" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M44" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="O44" t="s">
+        <v>196</v>
+      </c>
+      <c r="P44" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q44" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="R44" s="78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M45" s="77">
+        <v>1</v>
+      </c>
+      <c r="N45" s="77">
+        <v>4</v>
+      </c>
+      <c r="O45" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="P45" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>6</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4027,7 +4121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6423EA7-F7E4-4FE6-96E5-55EEB0D7E5FA}">
   <dimension ref="B2:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -4054,12 +4148,12 @@
     <col min="27" max="27" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
@@ -4078,10 +4172,10 @@
       <c r="G3" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -4100,10 +4194,8 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -4122,10 +4214,8 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -4144,17 +4234,8 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -4173,22 +4254,14 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-    </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+    </row>
+    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -4207,67 +4280,13 @@
       <c r="G8" s="13">
         <v>0</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>178</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -4280,15 +4299,8 @@
       <c r="E12" t="s">
         <v>185</v>
       </c>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="64"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
@@ -4302,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2</v>
       </c>
@@ -4316,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3</v>
       </c>
@@ -4330,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>4</v>
       </c>
@@ -4396,66 +4408,65 @@
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="64">
-        <v>1</v>
-      </c>
-      <c r="D21" s="64">
-        <v>1</v>
-      </c>
-      <c r="E21" s="64" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64">
+      <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="K21" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="81" t="s">
+      <c r="K21" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M21" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="81" t="s">
+      <c r="N21" s="75"/>
+      <c r="O21" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="81" t="s">
+      <c r="P21" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="R21" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" s="81" t="s">
+      <c r="R21" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="T21" s="82" t="s">
+      <c r="T21" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="U21" s="82"/>
-      <c r="V21" s="81" t="s">
+      <c r="U21" s="75"/>
+      <c r="V21" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="81" t="s">
+      <c r="W21" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="Y21" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="81" t="s">
+      <c r="Y21" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="AA21" s="82" t="s">
+      <c r="AA21" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="81" t="s">
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="AD21" s="81" t="s">
+      <c r="AD21" s="71" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4463,73 +4474,71 @@
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="64">
-        <v>1</v>
-      </c>
-      <c r="D22" s="64">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="E22" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64">
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="64"/>
-      <c r="K22" s="83">
-        <v>1</v>
-      </c>
-      <c r="L22" s="83">
-        <v>1</v>
-      </c>
-      <c r="M22" s="83">
-        <v>1</v>
-      </c>
-      <c r="N22" s="83" t="s">
+      <c r="K22" s="72">
+        <v>1</v>
+      </c>
+      <c r="L22" s="72">
+        <v>1</v>
+      </c>
+      <c r="M22" s="72">
+        <v>1</v>
+      </c>
+      <c r="N22" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="83">
-        <v>1</v>
-      </c>
-      <c r="P22" s="84">
-        <v>1</v>
-      </c>
-      <c r="R22" s="83">
-        <v>1</v>
-      </c>
-      <c r="S22" s="83">
-        <v>1</v>
-      </c>
-      <c r="T22" s="83">
-        <v>1</v>
-      </c>
-      <c r="U22" s="83" t="s">
+      <c r="O22" s="72">
+        <v>1</v>
+      </c>
+      <c r="P22" s="72">
+        <v>1</v>
+      </c>
+      <c r="R22" s="72">
+        <v>1</v>
+      </c>
+      <c r="S22" s="72">
+        <v>1</v>
+      </c>
+      <c r="T22" s="72">
+        <v>1</v>
+      </c>
+      <c r="U22" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="V22" s="83">
-        <v>1</v>
-      </c>
-      <c r="W22" s="84">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="83">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="83">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="83">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="83" t="s">
+      <c r="V22" s="72">
+        <v>1</v>
+      </c>
+      <c r="W22" s="72">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="72">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="72">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="AC22" s="83">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="84">
+      <c r="AC22" s="72">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="72">
         <v>1</v>
       </c>
     </row>
@@ -4537,73 +4546,71 @@
       <c r="B23" s="6">
         <v>3</v>
       </c>
-      <c r="C23" s="64">
-        <v>1</v>
-      </c>
-      <c r="D23" s="64">
-        <v>4</v>
-      </c>
-      <c r="E23" s="64" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64">
+      <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="64"/>
-      <c r="K23" s="83">
-        <v>2</v>
-      </c>
-      <c r="L23" s="83">
-        <v>1</v>
-      </c>
-      <c r="M23" s="83">
-        <v>2</v>
-      </c>
-      <c r="N23" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="83">
-        <v>2</v>
-      </c>
-      <c r="P23" s="84">
-        <v>0</v>
-      </c>
-      <c r="R23" s="83">
-        <v>2</v>
-      </c>
-      <c r="S23" s="83">
-        <v>1</v>
-      </c>
-      <c r="T23" s="83">
-        <v>2</v>
-      </c>
-      <c r="U23" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" s="83">
-        <v>3</v>
-      </c>
-      <c r="W23" s="84">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="83">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="83">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="83">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="83">
-        <v>5</v>
-      </c>
-      <c r="AD23" s="84">
+      <c r="K23" s="72">
+        <v>2</v>
+      </c>
+      <c r="L23" s="72">
+        <v>1</v>
+      </c>
+      <c r="M23" s="72">
+        <v>2</v>
+      </c>
+      <c r="N23" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="72">
+        <v>2</v>
+      </c>
+      <c r="P23" s="72">
+        <v>0</v>
+      </c>
+      <c r="R23" s="72">
+        <v>2</v>
+      </c>
+      <c r="S23" s="72">
+        <v>1</v>
+      </c>
+      <c r="T23" s="72">
+        <v>2</v>
+      </c>
+      <c r="U23" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="72">
+        <v>3</v>
+      </c>
+      <c r="W23" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="72">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="72">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="72">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="72">
         <v>1</v>
       </c>
     </row>
@@ -4611,73 +4618,71 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="64">
-        <v>1</v>
-      </c>
-      <c r="D24" s="64">
-        <v>4</v>
-      </c>
-      <c r="E24" s="64" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64">
+      <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="64"/>
-      <c r="K24" s="83">
-        <v>3</v>
-      </c>
-      <c r="L24" s="83">
-        <v>1</v>
-      </c>
-      <c r="M24" s="83">
-        <v>3</v>
-      </c>
-      <c r="N24" s="83" t="s">
+      <c r="K24" s="72">
+        <v>3</v>
+      </c>
+      <c r="L24" s="72">
+        <v>1</v>
+      </c>
+      <c r="M24" s="72">
+        <v>3</v>
+      </c>
+      <c r="N24" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="O24" s="83">
-        <v>3</v>
-      </c>
-      <c r="P24" s="84">
-        <v>0</v>
-      </c>
-      <c r="R24" s="83">
-        <v>3</v>
-      </c>
-      <c r="S24" s="83">
-        <v>1</v>
-      </c>
-      <c r="T24" s="83">
-        <v>3</v>
-      </c>
-      <c r="U24" s="83" t="s">
+      <c r="O24" s="72">
+        <v>3</v>
+      </c>
+      <c r="P24" s="72">
+        <v>0</v>
+      </c>
+      <c r="R24" s="72">
+        <v>3</v>
+      </c>
+      <c r="S24" s="72">
+        <v>1</v>
+      </c>
+      <c r="T24" s="72">
+        <v>3</v>
+      </c>
+      <c r="U24" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="V24" s="83">
-        <v>4</v>
-      </c>
-      <c r="W24" s="84">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="83">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="83">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="83">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="83" t="s">
+      <c r="V24" s="72">
+        <v>4</v>
+      </c>
+      <c r="W24" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="72">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="72">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="AC24" s="83">
-        <v>3</v>
-      </c>
-      <c r="AD24" s="84">
+      <c r="AC24" s="72">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="72">
         <v>0</v>
       </c>
     </row>
@@ -4685,74 +4690,71 @@
       <c r="B25" s="6">
         <v>5</v>
       </c>
-      <c r="C25" s="64">
-        <v>1</v>
-      </c>
-      <c r="D25" s="64">
-        <v>2</v>
-      </c>
-      <c r="E25" s="64" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64">
+      <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="64"/>
-      <c r="K25" s="83">
-        <v>4</v>
-      </c>
-      <c r="L25" s="83">
-        <v>1</v>
-      </c>
-      <c r="M25" s="83">
-        <v>4</v>
-      </c>
-      <c r="N25" s="83" t="s">
+      <c r="K25" s="72">
+        <v>4</v>
+      </c>
+      <c r="L25" s="72">
+        <v>1</v>
+      </c>
+      <c r="M25" s="72">
+        <v>4</v>
+      </c>
+      <c r="N25" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O25" s="83">
-        <v>4</v>
-      </c>
-      <c r="P25" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="83">
-        <v>4</v>
-      </c>
-      <c r="S25" s="83">
-        <v>1</v>
-      </c>
-      <c r="T25" s="83">
-        <v>4</v>
-      </c>
-      <c r="U25" s="83" t="s">
+      <c r="O25" s="72">
+        <v>4</v>
+      </c>
+      <c r="P25" s="72">
+        <v>0</v>
+      </c>
+      <c r="R25" s="72">
+        <v>4</v>
+      </c>
+      <c r="S25" s="72">
+        <v>1</v>
+      </c>
+      <c r="T25" s="72">
+        <v>4</v>
+      </c>
+      <c r="U25" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="V25" s="83">
-        <v>5</v>
-      </c>
-      <c r="W25" s="84">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="83">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="83">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="83">
-        <v>4</v>
-      </c>
-      <c r="AB25" s="83" t="s">
+      <c r="V25" s="72">
+        <v>5</v>
+      </c>
+      <c r="W25" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="72">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="72">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="AC25" s="83">
+      <c r="AC25" s="72">
         <v>6</v>
       </c>
-      <c r="AD25" s="84">
+      <c r="AD25" s="72">
         <v>1</v>
       </c>
     </row>
@@ -4760,74 +4762,71 @@
       <c r="B26" s="6">
         <v>6</v>
       </c>
-      <c r="C26" s="64">
-        <v>1</v>
-      </c>
-      <c r="D26" s="64">
-        <v>4</v>
-      </c>
-      <c r="E26" s="64" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="66">
+      <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="64"/>
-      <c r="K26" s="83">
-        <v>5</v>
-      </c>
-      <c r="L26" s="83">
-        <v>1</v>
-      </c>
-      <c r="M26" s="83">
-        <v>5</v>
-      </c>
-      <c r="N26" s="83" t="s">
+      <c r="K26" s="72">
+        <v>5</v>
+      </c>
+      <c r="L26" s="72">
+        <v>1</v>
+      </c>
+      <c r="M26" s="72">
+        <v>5</v>
+      </c>
+      <c r="N26" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="83">
-        <v>5</v>
-      </c>
-      <c r="P26" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="83">
-        <v>5</v>
-      </c>
-      <c r="S26" s="83">
-        <v>1</v>
-      </c>
-      <c r="T26" s="83">
-        <v>5</v>
-      </c>
-      <c r="U26" s="83" t="s">
+      <c r="O26" s="72">
+        <v>5</v>
+      </c>
+      <c r="P26" s="72">
+        <v>0</v>
+      </c>
+      <c r="R26" s="72">
+        <v>5</v>
+      </c>
+      <c r="S26" s="72">
+        <v>1</v>
+      </c>
+      <c r="T26" s="72">
+        <v>5</v>
+      </c>
+      <c r="U26" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="V26" s="83">
+      <c r="V26" s="72">
         <v>6</v>
       </c>
-      <c r="W26" s="84">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="83">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="83">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="83">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="83" t="s">
+      <c r="W26" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="72">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="72">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="AC26" s="83">
+      <c r="AC26" s="72">
         <v>7</v>
       </c>
-      <c r="AD26" s="84">
+      <c r="AD26" s="72">
         <v>0</v>
       </c>
     </row>
@@ -4835,61 +4834,56 @@
       <c r="B27" s="6">
         <v>7</v>
       </c>
-      <c r="C27" s="64">
-        <v>1</v>
-      </c>
-      <c r="D27" s="64">
-        <v>4</v>
-      </c>
-      <c r="E27" s="64" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="66">
+      <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="64"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="84">
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="R27" s="72">
         <v>6</v>
       </c>
-      <c r="S27" s="84">
-        <v>1</v>
-      </c>
-      <c r="T27" s="64">
+      <c r="S27" s="72">
+        <v>1</v>
+      </c>
+      <c r="T27">
         <v>6</v>
       </c>
-      <c r="U27" s="64" t="s">
+      <c r="U27" t="s">
         <v>100</v>
       </c>
-      <c r="V27" s="84">
-        <v>2</v>
-      </c>
-      <c r="W27" s="84">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="84">
+      <c r="V27" s="72">
+        <v>2</v>
+      </c>
+      <c r="W27" s="72">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="72">
         <v>6</v>
       </c>
-      <c r="Z27" s="84">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="64">
+      <c r="Z27" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA27">
         <v>6</v>
       </c>
-      <c r="AB27" s="64" t="s">
+      <c r="AB27" t="s">
         <v>100</v>
       </c>
-      <c r="AC27" s="84">
-        <v>2</v>
-      </c>
-      <c r="AD27" s="84">
+      <c r="AC27" s="72">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="72">
         <v>1</v>
       </c>
     </row>
@@ -4897,543 +4891,397 @@
       <c r="B28" s="6">
         <v>8</v>
       </c>
-      <c r="C28" s="64">
-        <v>1</v>
-      </c>
-      <c r="D28" s="64">
-        <v>1</v>
-      </c>
-      <c r="E28" s="66" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="66">
+      <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="Y28" s="84">
+      <c r="Y28" s="72">
         <v>7</v>
       </c>
-      <c r="Z28" s="84">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="64">
+      <c r="Z28" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA28">
         <v>7</v>
       </c>
-      <c r="AB28" s="64" t="s">
+      <c r="AB28" t="s">
         <v>101</v>
       </c>
-      <c r="AC28" s="84">
-        <v>4</v>
-      </c>
-      <c r="AD28" s="84">
+      <c r="AC28" s="72">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="86">
+      <c r="B29" s="6">
         <v>9</v>
       </c>
-      <c r="C29" s="64">
-        <v>1</v>
-      </c>
-      <c r="D29" s="64">
-        <v>1</v>
-      </c>
-      <c r="E29" s="66" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="66">
+      <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
     </row>
     <row r="30" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="87">
+      <c r="B30" s="10">
         <v>10</v>
       </c>
-      <c r="C30" s="88">
-        <v>1</v>
-      </c>
-      <c r="D30" s="88">
-        <v>1</v>
-      </c>
-      <c r="E30" s="88" t="s">
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>190</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="13"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="K32" s="83">
+      <c r="K32" s="72">
         <v>6</v>
       </c>
-      <c r="L32" s="83">
-        <v>1</v>
-      </c>
-      <c r="M32" s="83">
+      <c r="L32" s="72">
+        <v>1</v>
+      </c>
+      <c r="M32" s="72">
         <v>6</v>
       </c>
-      <c r="N32" s="83" t="s">
+      <c r="N32" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="83">
+      <c r="O32" s="72">
         <v>6</v>
       </c>
-      <c r="P32" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="66"/>
-    </row>
-    <row r="33" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K33" s="83">
+      <c r="P32" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K33" s="72">
         <v>7</v>
       </c>
-      <c r="L33" s="83">
-        <v>1</v>
-      </c>
-      <c r="M33" s="83">
+      <c r="L33" s="72">
+        <v>1</v>
+      </c>
+      <c r="M33" s="72">
         <v>7</v>
       </c>
-      <c r="N33" s="83" t="s">
+      <c r="N33" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="O33" s="83">
+      <c r="O33" s="72">
         <v>7</v>
       </c>
-      <c r="P33" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="66"/>
-    </row>
-    <row r="34" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K34" s="83">
+      <c r="P33" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K34" s="72">
         <v>8</v>
       </c>
-      <c r="L34" s="83">
-        <v>1</v>
-      </c>
-      <c r="M34" s="83">
+      <c r="L34" s="72">
+        <v>1</v>
+      </c>
+      <c r="M34" s="72">
         <v>8</v>
       </c>
-      <c r="N34" s="84" t="s">
+      <c r="N34" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="83">
+      <c r="O34" s="72">
         <v>8</v>
       </c>
-      <c r="P34" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="66"/>
-    </row>
-    <row r="35" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K35" s="84">
+      <c r="P34" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K35" s="72">
         <v>9</v>
       </c>
-      <c r="L35" s="83">
-        <v>1</v>
-      </c>
-      <c r="M35" s="84">
+      <c r="L35" s="72">
+        <v>1</v>
+      </c>
+      <c r="M35" s="72">
         <v>9</v>
       </c>
-      <c r="N35" s="84" t="s">
+      <c r="N35" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="O35" s="83">
+      <c r="O35" s="72">
         <v>9</v>
       </c>
-      <c r="P35" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="66"/>
-    </row>
-    <row r="36" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K36" s="85">
+      <c r="P35" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K36" s="73">
         <v>19</v>
       </c>
-      <c r="L36" s="85">
-        <v>1</v>
-      </c>
-      <c r="M36" s="85">
+      <c r="L36" s="73">
+        <v>1</v>
+      </c>
+      <c r="M36" s="73">
         <v>10</v>
       </c>
-      <c r="N36" s="85" t="s">
+      <c r="N36" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="O36" s="85">
+      <c r="O36" s="73">
         <v>10</v>
       </c>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="66"/>
-    </row>
-    <row r="37" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K37" s="64"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="66"/>
-    </row>
-    <row r="38" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K38" s="64"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="66"/>
-    </row>
-    <row r="39" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="66"/>
-    </row>
-    <row r="40" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K40" s="64"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="66"/>
-    </row>
-    <row r="41" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="64"/>
-    </row>
-    <row r="45" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="P36" s="73"/>
+    </row>
+    <row r="45" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K46" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="L46" s="67" t="s">
+    <row r="46" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K46" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="M46" s="68" t="s">
+      <c r="M46" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="N46" s="68"/>
-      <c r="O46" s="65" t="s">
+      <c r="N46" s="76"/>
+      <c r="O46" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="P46" s="67" t="s">
+      <c r="P46" s="63" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K47" s="69">
+    <row r="47" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K47" s="64">
         <v>1</v>
       </c>
       <c r="L47" s="51">
         <v>1</v>
       </c>
-      <c r="M47" s="69">
-        <v>1</v>
-      </c>
-      <c r="N47" s="76" t="s">
+      <c r="M47" s="64">
+        <v>1</v>
+      </c>
+      <c r="N47" s="67" t="s">
         <v>88</v>
       </c>
       <c r="O47" s="51">
         <v>1</v>
       </c>
-      <c r="P47" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K48" s="71">
-        <v>2</v>
-      </c>
-      <c r="L48" s="64">
-        <v>1</v>
-      </c>
-      <c r="M48" s="71">
+      <c r="P47" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K48" s="66">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" s="66">
         <v>2</v>
       </c>
       <c r="N48" t="s">
         <v>0</v>
       </c>
-      <c r="O48" s="64">
-        <v>2</v>
-      </c>
-      <c r="P48" s="72">
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K49" s="71">
-        <v>3</v>
-      </c>
-      <c r="L49" s="64">
-        <v>1</v>
-      </c>
-      <c r="M49" s="71">
-        <v>3</v>
-      </c>
-      <c r="N49" s="76" t="s">
+      <c r="K49" s="66">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" s="66">
+        <v>3</v>
+      </c>
+      <c r="N49" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="O49" s="64">
-        <v>3</v>
-      </c>
-      <c r="P49" s="72">
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K50" s="71">
-        <v>4</v>
-      </c>
-      <c r="L50" s="64">
-        <v>1</v>
-      </c>
-      <c r="M50" s="71">
-        <v>4</v>
-      </c>
-      <c r="N50" s="76" t="s">
+      <c r="K50" s="66">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" s="66">
+        <v>4</v>
+      </c>
+      <c r="N50" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="O50" s="64">
-        <v>4</v>
-      </c>
-      <c r="P50" s="72">
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K51" s="71">
-        <v>5</v>
-      </c>
-      <c r="L51" s="64">
-        <v>1</v>
-      </c>
-      <c r="M51" s="71">
-        <v>5</v>
-      </c>
-      <c r="N51" s="76" t="s">
+      <c r="K51" s="66">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" s="66">
+        <v>5</v>
+      </c>
+      <c r="N51" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="O51" s="64">
-        <v>5</v>
-      </c>
-      <c r="P51" s="72">
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K52" s="71">
+      <c r="K52" s="66">
         <v>6</v>
       </c>
-      <c r="L52" s="64">
-        <v>1</v>
-      </c>
-      <c r="M52" s="71">
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" s="66">
         <v>6</v>
       </c>
-      <c r="N52" s="76" t="s">
+      <c r="N52" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="O52" s="64">
+      <c r="O52">
         <v>6</v>
       </c>
-      <c r="P52" s="72">
+      <c r="P52" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K53" s="71">
+      <c r="K53" s="66">
         <v>7</v>
       </c>
-      <c r="L53" s="64">
-        <v>1</v>
-      </c>
-      <c r="M53" s="71">
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" s="66">
         <v>7</v>
       </c>
-      <c r="N53" s="76" t="s">
+      <c r="N53" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="O53" s="64">
+      <c r="O53">
         <v>7</v>
       </c>
-      <c r="P53" s="72">
+      <c r="P53" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K54" s="71">
+      <c r="K54" s="66">
         <v>8</v>
       </c>
-      <c r="L54" s="64">
-        <v>1</v>
-      </c>
-      <c r="M54" s="71">
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" s="66">
         <v>8</v>
       </c>
-      <c r="N54" s="72" t="s">
+      <c r="N54" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="O54" s="64">
+      <c r="O54">
         <v>8</v>
       </c>
-      <c r="P54" s="72">
+      <c r="P54" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K55" s="78">
+      <c r="K55" s="66">
         <v>9</v>
       </c>
-      <c r="L55" s="64">
-        <v>1</v>
-      </c>
-      <c r="M55" s="78">
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" s="66">
         <v>9</v>
       </c>
-      <c r="N55" s="72" t="s">
+      <c r="N55" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="O55" s="64">
+      <c r="O55">
         <v>9</v>
       </c>
-      <c r="P55" s="72">
+      <c r="P55" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K56" s="78">
+      <c r="K56" s="66">
         <v>19</v>
       </c>
-      <c r="L56" s="66">
-        <v>1</v>
-      </c>
-      <c r="M56" s="78">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" s="66">
         <v>10</v>
       </c>
-      <c r="N56" s="72" t="s">
+      <c r="N56" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="O56" s="66">
+      <c r="O56">
         <v>10</v>
       </c>
-      <c r="P56" s="72"/>
+      <c r="P56" s="67"/>
     </row>
     <row r="57" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K57" s="69">
+      <c r="K57" s="64">
         <v>10</v>
       </c>
-      <c r="L57" s="77">
+      <c r="L57" s="51">
         <v>2</v>
       </c>
       <c r="M57" s="51">
@@ -5445,13 +5293,13 @@
       <c r="O57" s="51">
         <v>1</v>
       </c>
-      <c r="P57" s="70">
-        <v>0</v>
-      </c>
-      <c r="R57" s="69">
+      <c r="P57" s="65">
+        <v>0</v>
+      </c>
+      <c r="R57" s="64">
         <v>10</v>
       </c>
-      <c r="S57" s="77">
+      <c r="S57" s="51">
         <v>2</v>
       </c>
       <c r="T57" s="51">
@@ -5463,328 +5311,328 @@
       <c r="V57" s="51">
         <v>9</v>
       </c>
-      <c r="W57" s="70">
+      <c r="W57" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K58" s="71">
+      <c r="K58" s="66">
         <v>11</v>
       </c>
-      <c r="L58" s="66">
-        <v>2</v>
-      </c>
-      <c r="M58" s="64">
-        <v>2</v>
-      </c>
-      <c r="N58" s="64" t="s">
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
         <v>88</v>
       </c>
-      <c r="O58" s="64">
-        <v>2</v>
-      </c>
-      <c r="P58" s="72">
-        <v>1</v>
-      </c>
-      <c r="R58" s="71">
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58" s="67">
+        <v>1</v>
+      </c>
+      <c r="R58" s="66">
         <v>11</v>
       </c>
-      <c r="S58" s="66">
-        <v>2</v>
-      </c>
-      <c r="T58" s="64">
-        <v>2</v>
-      </c>
-      <c r="U58" s="64" t="s">
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58" t="s">
         <v>88</v>
       </c>
-      <c r="V58" s="64">
+      <c r="V58">
         <v>7</v>
       </c>
-      <c r="W58" s="72">
+      <c r="W58" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K59" s="71">
+      <c r="K59" s="66">
         <v>12</v>
       </c>
-      <c r="L59" s="66">
-        <v>2</v>
-      </c>
-      <c r="M59" s="64">
-        <v>3</v>
-      </c>
-      <c r="N59" s="64" t="s">
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
         <v>89</v>
       </c>
-      <c r="O59" s="64">
-        <v>3</v>
-      </c>
-      <c r="P59" s="72">
-        <v>0</v>
-      </c>
-      <c r="R59" s="71">
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59" s="67">
+        <v>0</v>
+      </c>
+      <c r="R59" s="66">
         <v>12</v>
       </c>
-      <c r="S59" s="66">
-        <v>2</v>
-      </c>
-      <c r="T59" s="64">
-        <v>3</v>
-      </c>
-      <c r="U59" s="64" t="s">
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59" t="s">
         <v>89</v>
       </c>
-      <c r="V59" s="64">
+      <c r="V59">
         <v>8</v>
       </c>
-      <c r="W59" s="72">
+      <c r="W59" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K60" s="71">
+      <c r="K60" s="66">
         <v>13</v>
       </c>
-      <c r="L60" s="66">
-        <v>2</v>
-      </c>
-      <c r="M60" s="64">
-        <v>4</v>
-      </c>
-      <c r="N60" s="64" t="s">
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
         <v>90</v>
       </c>
-      <c r="O60" s="64">
-        <v>4</v>
-      </c>
-      <c r="P60" s="72">
-        <v>0</v>
-      </c>
-      <c r="R60" s="71">
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60" s="67">
+        <v>0</v>
+      </c>
+      <c r="R60" s="66">
         <v>13</v>
       </c>
-      <c r="S60" s="66">
-        <v>2</v>
-      </c>
-      <c r="T60" s="64">
-        <v>4</v>
-      </c>
-      <c r="U60" s="64" t="s">
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>4</v>
+      </c>
+      <c r="U60" t="s">
         <v>90</v>
       </c>
-      <c r="V60" s="64">
+      <c r="V60">
         <v>6</v>
       </c>
-      <c r="W60" s="72">
+      <c r="W60" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K61" s="71">
+      <c r="K61" s="66">
         <v>14</v>
       </c>
-      <c r="L61" s="66">
-        <v>2</v>
-      </c>
-      <c r="M61" s="64">
-        <v>5</v>
-      </c>
-      <c r="N61" s="64" t="s">
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
         <v>91</v>
       </c>
-      <c r="O61" s="64">
-        <v>5</v>
-      </c>
-      <c r="P61" s="72">
-        <v>0</v>
-      </c>
-      <c r="R61" s="71">
+      <c r="O61">
+        <v>5</v>
+      </c>
+      <c r="P61" s="67">
+        <v>0</v>
+      </c>
+      <c r="R61" s="66">
         <v>14</v>
       </c>
-      <c r="S61" s="66">
-        <v>2</v>
-      </c>
-      <c r="T61" s="64">
-        <v>5</v>
-      </c>
-      <c r="U61" s="64" t="s">
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>5</v>
+      </c>
+      <c r="U61" t="s">
         <v>91</v>
       </c>
-      <c r="V61" s="64">
-        <v>5</v>
-      </c>
-      <c r="W61" s="72">
+      <c r="V61">
+        <v>5</v>
+      </c>
+      <c r="W61" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K62" s="71">
+      <c r="K62" s="66">
         <v>15</v>
       </c>
-      <c r="L62" s="66">
-        <v>2</v>
-      </c>
-      <c r="M62" s="64">
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
         <v>6</v>
       </c>
-      <c r="N62" s="64" t="s">
+      <c r="N62" t="s">
         <v>100</v>
       </c>
-      <c r="O62" s="64">
+      <c r="O62">
         <v>6</v>
       </c>
-      <c r="P62" s="72">
-        <v>1</v>
-      </c>
-      <c r="R62" s="71">
+      <c r="P62" s="67">
+        <v>1</v>
+      </c>
+      <c r="R62" s="66">
         <v>15</v>
       </c>
-      <c r="S62" s="66">
-        <v>2</v>
-      </c>
-      <c r="T62" s="64">
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
         <v>6</v>
       </c>
-      <c r="U62" s="64" t="s">
+      <c r="U62" t="s">
         <v>100</v>
       </c>
-      <c r="V62" s="64">
-        <v>4</v>
-      </c>
-      <c r="W62" s="72">
+      <c r="V62">
+        <v>4</v>
+      </c>
+      <c r="W62" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K63" s="71">
+      <c r="K63" s="66">
         <v>16</v>
       </c>
-      <c r="L63" s="66">
-        <v>2</v>
-      </c>
-      <c r="M63" s="64">
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
         <v>7</v>
       </c>
-      <c r="N63" s="64" t="s">
+      <c r="N63" t="s">
         <v>101</v>
       </c>
-      <c r="O63" s="64">
+      <c r="O63">
         <v>7</v>
       </c>
-      <c r="P63" s="72">
-        <v>1</v>
-      </c>
-      <c r="R63" s="71">
+      <c r="P63" s="67">
+        <v>1</v>
+      </c>
+      <c r="R63" s="66">
         <v>16</v>
       </c>
-      <c r="S63" s="66">
-        <v>2</v>
-      </c>
-      <c r="T63" s="64">
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
         <v>7</v>
       </c>
-      <c r="U63" s="64" t="s">
+      <c r="U63" t="s">
         <v>101</v>
       </c>
-      <c r="V63" s="64">
-        <v>2</v>
-      </c>
-      <c r="W63" s="72">
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K64" s="78">
+      <c r="K64" s="66">
         <v>17</v>
       </c>
-      <c r="L64" s="66">
-        <v>2</v>
-      </c>
-      <c r="M64" s="64">
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
         <v>8</v>
       </c>
-      <c r="N64" s="66" t="s">
+      <c r="N64" t="s">
         <v>28</v>
       </c>
-      <c r="O64" s="64">
+      <c r="O64">
         <v>8</v>
       </c>
-      <c r="P64" s="72">
-        <v>1</v>
-      </c>
-      <c r="R64" s="78">
+      <c r="P64" s="67">
+        <v>1</v>
+      </c>
+      <c r="R64" s="66">
         <v>17</v>
       </c>
-      <c r="S64" s="66">
-        <v>2</v>
-      </c>
-      <c r="T64" s="64">
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
         <v>8</v>
       </c>
-      <c r="U64" s="66" t="s">
+      <c r="U64" t="s">
         <v>28</v>
       </c>
-      <c r="V64" s="64">
-        <v>3</v>
-      </c>
-      <c r="W64" s="72">
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="K65" s="79">
+      <c r="K65" s="70">
         <v>18</v>
       </c>
-      <c r="L65" s="74">
-        <v>2</v>
-      </c>
-      <c r="M65" s="74">
+      <c r="L65" s="68">
+        <v>2</v>
+      </c>
+      <c r="M65" s="68">
         <v>9</v>
       </c>
-      <c r="N65" s="74" t="s">
+      <c r="N65" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="O65" s="73">
+      <c r="O65" s="68">
         <v>9</v>
       </c>
-      <c r="P65" s="75">
-        <v>1</v>
-      </c>
-      <c r="R65" s="79">
+      <c r="P65" s="69">
+        <v>1</v>
+      </c>
+      <c r="R65" s="70">
         <v>18</v>
       </c>
-      <c r="S65" s="74">
-        <v>2</v>
-      </c>
-      <c r="T65" s="74">
+      <c r="S65" s="68">
+        <v>2</v>
+      </c>
+      <c r="T65" s="68">
         <v>9</v>
       </c>
-      <c r="U65" s="74" t="s">
+      <c r="U65" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="V65" s="73">
-        <v>1</v>
-      </c>
-      <c r="W65" s="75">
+      <c r="V65" s="68">
+        <v>1</v>
+      </c>
+      <c r="W65" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="11:23" x14ac:dyDescent="0.25">
-      <c r="R66" s="78">
+      <c r="R66" s="66">
         <v>20</v>
       </c>
-      <c r="S66" s="66">
-        <v>2</v>
-      </c>
-      <c r="T66" s="78">
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66" s="66">
         <v>10</v>
       </c>
-      <c r="U66" s="72" t="s">
+      <c r="U66" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="V66" s="66">
+      <c r="V66">
         <v>10</v>
       </c>
     </row>
